--- a/総合テスト/4. 管理者機能/ST-A-012.xlsx
+++ b/総合テスト/4. 管理者機能/ST-A-012.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki.nishijima\Downloads\workspace\teamF\総合テスト\4. 管理者機能\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\4. 管理者機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69532FBF-F48A-4E6D-89D0-D021E5591EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FFD6D6-9584-496D-9AD6-CCB8D61CD8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="810" windowWidth="14400" windowHeight="8170" xr2:uid="{507C041A-775E-4648-9833-5D3728848E62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{507C041A-775E-4648-9833-5D3728848E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DB操作前" sheetId="2" r:id="rId2"/>
+    <sheet name="DB操作後" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,17 +109,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>198905</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>124799</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>147827</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>96730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03388DE-3693-B842-818E-11672BC64456}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65752E3-B684-A7C5-328F-7608DD466D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -134,7 +136,105 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14727705" cy="6982799"/>
+          <a:ext cx="12097372" cy="6331275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>159369</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF53DFCF-5771-279A-638A-122C13A80E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12046569" cy="5448580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>178420</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBD3ED3-AED5-63F7-C122-6220C18AC0BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12065620" cy="5397777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -465,6 +565,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E92417-20AC-44EB-B6E3-4F8536610C28}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217F4B49-F61F-443D-A2C0-D96986CF4FA6}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -473,4 +589,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713A5CA4-8FF8-45EE-95FF-F9BE27A759E5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>